--- a/eda/treebank/dev/column-1-analyze.xlsx
+++ b/eda/treebank/dev/column-1-analyze.xlsx
@@ -28,7 +28,7 @@
     <t>A</t>
   </si>
   <si>
-    <t>nhiều, khác, lớn, nhất, hơn, cùng, cao, gần, đầu tiên, mới</t>
+    <t>nhiều, khác, lớn, hơn, nhất, cùng, cao, gần, đầu tiên, mới</t>
   </si>
   <si>
     <t>C</t>
@@ -40,7 +40,7 @@
     <t>CH</t>
   </si>
   <si>
-    <t>,, ., ", :, -, ..., RBKT, LBKT, ?, !</t>
+    <t>,, ., ", :, -, ..., LBKT, RBKT, ?, !</t>
   </si>
   <si>
     <t>E</t>
@@ -52,13 +52,13 @@
     <t>FW</t>
   </si>
   <si>
-    <t>oxy, ăcqui, dioxin, oxy shop, Oxy shop, copywriter, knock-out, marketing, bar, granite</t>
+    <t>oxy, ăcqui, dioxin, oxy shop, knock-out, bar, Oxy shop, copywriter, marketing, karaoke</t>
   </si>
   <si>
     <t>I</t>
   </si>
   <si>
-    <t>ơi, ạ, ư, nha, Vâng</t>
+    <t>ơi, ạ, Vâng, ư, nha</t>
   </si>
   <si>
     <t>L</t>
@@ -70,7 +70,7 @@
     <t>M</t>
   </si>
   <si>
-    <t>một, hai, ba, 10, 2, 1, 30, 3, 20, Một</t>
+    <t>một, hai, ba, 2, 10, 1, 30, 3, Một, 20</t>
   </si>
   <si>
     <t>N</t>
@@ -94,19 +94,19 @@
     <t>Nu</t>
   </si>
   <si>
-    <t>đồng, kg, g, tuổi, m, lít, đ, phút, USD, baht</t>
+    <t>đồng, kg, g, tuổi, m, đ, lít, phút, USD, km</t>
   </si>
   <si>
     <t>Ny</t>
   </si>
   <si>
-    <t>VN, TP, NKT, ĐH, Th, DN, Kh., SV, TP.HCM, UBND</t>
+    <t>VN, TP, NKT, ĐH, Th, DN, Kh., SV, UBND, TP.HCM</t>
   </si>
   <si>
     <t>P</t>
   </si>
   <si>
-    <t>mình, này, đó, tôi, chúng tôi, ấy, đây, cả, họ, nào</t>
+    <t>này, mình, đó, tôi, chúng tôi, ấy, đây, cả, họ, nào</t>
   </si>
   <si>
     <t>R</t>
@@ -118,7 +118,7 @@
     <t>T</t>
   </si>
   <si>
-    <t>cả, đến, ngay, chính, thôi, Thế, riêng, rồi, hở, đâu</t>
+    <t>cả, đến, ngay, chính, thôi, riêng, Thế, hở, rồi, Chính</t>
   </si>
   <si>
     <t>V</t>
@@ -130,13 +130,13 @@
     <t>X</t>
   </si>
   <si>
-    <t>vì sao, Tại sao, ngày càng, như thế nào, vừa qua, dường như, Vì sao, nhất là, thật ra, ò e í e</t>
+    <t>vì sao, Tại sao, ngày càng, như thế nào, dường như, vừa qua, thật ra, Vì sao, nhất là, thiên la địa võng</t>
   </si>
   <si>
     <t>Z</t>
   </si>
   <si>
-    <t>Phó, phó, nguyên, bất, tái, hóa, đa, tân, vô</t>
+    <t>Phó, phó, nguyên, tái, vô, đa, tân, hóa, bất</t>
   </si>
 </sst>
 </file>
